--- a/R/analysis/data/Pt_39_Control.xlsx
+++ b/R/analysis/data/Pt_39_Control.xlsx
@@ -521,10 +521,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.79</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.45</v>
+        <v>0.92</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.65</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
-        <v>2.12</v>
+        <v>1.41</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.6</v>
+        <v>4.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.53</v>
@@ -811,16 +811,16 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>4.77</v>
+        <v>1.74</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.23</v>
+        <v>3.37</v>
       </c>
       <c r="M7" t="n">
-        <v>3.3</v>
+        <v>1.89</v>
       </c>
       <c r="N7" t="n">
-        <v>1.33</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0.35</v>
@@ -930,13 +930,13 @@
         <v>0.58</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>1.93</v>
       </c>
       <c r="K10" t="n">
-        <v>3.51</v>
+        <v>0.27</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.19</v>
+        <v>2.48</v>
       </c>
       <c r="M10" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1056,7 +1056,7 @@
         <v>2.36</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>2.04</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M12" t="n">
         <v>1.41</v>
@@ -1167,16 +1167,16 @@
         <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.83</v>
+        <v>0.59</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.42</v>
+        <v>3.42</v>
       </c>
       <c r="M13" t="n">
-        <v>4.07</v>
+        <v>1.24</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.88</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>2.83</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>1.62</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.43</v>
+        <v>4.43</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1343,16 +1343,16 @@
         <v>1.17</v>
       </c>
       <c r="K16" t="n">
-        <v>5.96</v>
+        <v>0.3</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.21</v>
+        <v>4.22</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1401,14 +1401,14 @@
         <v>0.64</v>
       </c>
       <c r="K17" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.29</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>1.25</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.71</v>
+        <v>3.71</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1515,16 +1515,16 @@
         <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>5.45</v>
+        <v>0.41</v>
       </c>
       <c r="L19" t="n">
-        <v>0.15</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
         <v>0.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.82</v>
+        <v>1.73</v>
       </c>
       <c r="L20" t="n">
-        <v>3.43</v>
+        <v>4</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>1.14</v>
@@ -1691,16 +1691,16 @@
         <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.84</v>
+        <v>1.41</v>
       </c>
       <c r="L22" t="n">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.25</v>
+        <v>0.42</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>1.37</v>
       </c>
       <c r="K24" t="n">
-        <v>2.51</v>
+        <v>0.55</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.4</v>
+        <v>2.6</v>
       </c>
       <c r="M24" t="n">
         <v>2.08</v>
@@ -1865,10 +1865,10 @@
         <v>1.37</v>
       </c>
       <c r="K25" t="n">
-        <v>3.38</v>
+        <v>0.55</v>
       </c>
       <c r="L25" t="n">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1982,7 +1982,7 @@
         <v>1.73</v>
       </c>
       <c r="L27" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>1.67</v>
@@ -2037,10 +2037,10 @@
         <v>0.82</v>
       </c>
       <c r="K28" t="n">
-        <v>3.27</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
-        <v>0.31</v>
+        <v>2.31</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
